--- a/MEDIA/100012_ 6202_009_會計科目餘額明細.xlsx
+++ b/MEDIA/100012_ 6202_009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100012_ 6202_009_2020-09-01~2020-11-04)</t>
+          <t>森邦(股)會計科目餘額明細(100012_ 6202_009_2019-01-01~2020-12-10)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>2695631</v>
+        <v>1801486</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,39 +427,2704 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>柏安108年google帳號共150個+50G雲端空間2思想</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1951486</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>87164</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>時間:108/01/01-10/02*9個月        </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1951486</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>87164</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>姚柏安108/1月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1969486</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>85916</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>姚柏安108/01月-VPN月租費-香港商第一線      </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1979486</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>85916</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>期間107/10/03-108/10/02-一年      </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1979486</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>87164</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20190215</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>姚柏安Power bi軟體帳號續約一年費用         </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1983086</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>85934</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20190215</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>姚柏安其間:108/2/12-109/2/11       </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1983086</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>85934</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20190228</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>期間:108/3/11-109/3/11-一年       </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1983086</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>86497</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20190228</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沖2/28#86831-108/02月印表機三台月租費-群侖</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-9650</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1973436</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>87785</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20190228</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>108/02月-印表機三台月租費-群侖           </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1983086</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>86831</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20190228</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>姚柏安拉亞域名laya.com.tw轉移續租        </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>762</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1983848</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>86495</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20190228</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>姚柏安微笑口罩網站主機續租1年-景泰            </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6029</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1989877</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>86497</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20190228</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>姚柏安108/2月-VPN月租費-香港商第一線       </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1999877</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>86831</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20190228</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>期間:108/2/25-109/2/25-一年       </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1999877</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>86495</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20190331</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>姚柏安108/3月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2017877</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>87919</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20190331</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>姚柏安108/3月-VPN月租費-香港商第一線       </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2027877</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>87919</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20190430</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>姚柏安108/4月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2045877</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>89165</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20190430</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4月google雲端空間租用費用              </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>16666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2062543</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>91566</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20190430</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4/3-10/2 googloe雲端空間租用轉預付     </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-100000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1962543</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>91564</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20190531</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>迴轉5月google雲端空間租用費用            </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-16666</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1945877</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>91568</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20190531</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5月google雲端空間租用費用              </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>16667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1962544</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>91582</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20190531</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5月google雲端空間租用費用              </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>16666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1979210</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>91568</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20190531</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>姚柏安108/05月-IDC機房月租費-是方電訊      </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1997210</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>90422</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20190630</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6月google雲端空間租用費用              </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>16667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2013877</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>91569</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20190630</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>姚柏安108/6月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2031877</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>91287</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20190731</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>姚柏安108/7月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2049877</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>92745</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20190731</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7月google雲端空間租用費用              </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>16666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2066543</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>92481</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20190831</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8月google雲端空間租用費用              </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>16666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2083209</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>92482</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20190831</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>姚柏安108/8月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2101209</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>94187</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20190930</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>姚柏安108/9月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2119209</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>95525</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20190930</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9月google雲端空間租用費用              </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>16666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2135875</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>92483</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20191017</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>期間:108/10/01-109/10/01-一年     </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2135875</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>95444</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20191017</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>杭南/中北/農安/幸福/西屯店掃碼下單機租賃費-益欣-自籌款</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2150875</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>95444</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>柏安108年google帳號共130個+50G雲端空間-思想</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>64393</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2215268</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>95161</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>期間108/10/02-110/10/01-共二年     </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2215268</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>95161</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>總金額:$515140/24=21464.17x3=6439</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2215268</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>95161</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>柏安108/10月google帳號共130個+50G雲端空間</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>21464</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2236732</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96464</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>期間108/10/02-110/10/01-共二年     </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2236732</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96464</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>總金額:515140/24=21464.17x1=21464</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2236732</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96464</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>迴轉柏安108年google帳號共130個+50G雲端空間-</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-64393</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2172339</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96462</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>期間108/10/02-110/10/01-共二年     </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2172339</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>96462</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>總金額:$515140/24=21464.17x3=6439</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2172339</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96462</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20191031</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>姚柏安108/10月-IDC機房月租費-是方電訊      </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2190339</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>96458</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20191108</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11-12月google帳號共130個+50G雲端空間-思想</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>42929</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2233268</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96466</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20191108</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>期間108/10/02-110/10/01-共二年     </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2233268</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96466</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20191108</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>總金額:515140/24=21464.17x2=42924</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2233268</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96466</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20191130</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>姚柏安108/11月-IDC機房月租費-是方電訊      </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2251268</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>97953</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20191130</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>沖#91564-4/3-10/2 googloe雲端空間租用</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2251270</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>99207</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20191231</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>姚柏安108/12月-IDC機房月租費-是方電訊      </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2269270</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>99045</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20191231</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>姚柏安108/2月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2287270</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>99426</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20200131</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>柏安109年google帳號共130個+50G雲端空間-思想</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>257570</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2544840</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>100498</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20200131</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>姚柏安109/1月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2562840</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>100379</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20200214</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>sunspark.com.tw域名續用1年-110/1/30</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>762</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2563602</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>100262</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20200229</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>姚柏安109/2月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2581602</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>101382</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20200229</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>微笑口罩網站主機續租1年109/3-11-110/3/10 </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>6029</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2587631</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>101149</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20200331</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>姚柏安109/3月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2605631</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>102499</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20200430</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>姚柏安109/4月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2623631</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>103694</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20200531</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>姚柏安109/5月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2641631</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>104979</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20200630</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>姚柏安109/6月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2659631</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>105973</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20200731</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>姚柏安109/7月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2677631</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>107530</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20200831</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>姚柏安109/8月-IDC機房月租費-是方電訊       </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2695631</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>108494</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>20200930</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6202  .009     </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>姚柏安109/9月-IDC機房月租費-是方電訊       </t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E65" t="n">
         <v>18000</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>2713631</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>109890</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>姚柏安109/10月-IDC機房月租費-是方電訊      </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2731631</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>111114</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20201130</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>期間:110/01/31-111/01/31        </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2731631</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>112112</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20201130</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>柏安sunspark.com.tw域名續用1年-中華電信數據</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>762</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2732393</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>112112</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20201130</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6202  .009     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>姚柏安109/11月-IDC機房月租費-是方電訊      </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2750393</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>112518</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>0</t>
         </is>
